--- a/Testing/Defects_UDQ.xlsx
+++ b/Testing/Defects_UDQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Strategic Solutions\Designs &amp; Specs\TF New Arch\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Strategic Solutions\Designs &amp; Specs\TF-New-Architecture\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84338387-A9C7-475F-81E7-F03E9E6F0B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA4C569-A48B-4504-920E-6E92DAD7135D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54C6E470-6CD7-4090-A37A-8B0398B8229C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Statement of Exemption Authorities</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>SF159617- Issue of ALL remains</t>
+  </si>
+  <si>
+    <t>SF159908 (Issue in both TF 11 and TF New Arch)</t>
+  </si>
+  <si>
+    <t>Issue exists</t>
+  </si>
+  <si>
+    <t>Not ready</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -612,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807590A0-F3BC-4D5E-BB74-41BF892B3F75}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,6 +718,9 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -719,6 +734,9 @@
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -732,6 +750,9 @@
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -745,36 +766,57 @@
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -788,26 +830,41 @@
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -827,22 +884,31 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
